--- a/biology/Botanique/Poeae/Poeae.xlsx
+++ b/biology/Botanique/Poeae/Poeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Poeae sont une tribu de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae .
-Cette tribu est la plus importante de cette famille avec environ 2800 espèces et 118 genres[2].
+Cette tribu est la plus importante de cette famille avec environ 2800 espèces et 118 genres.
 Elle comprend beaucoup de plantes cultivées comme plantes fourragères ou pour créer des pelouses.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des sous-tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN :
 Agrostidinae
 Airinae
 Alopecurinae
@@ -565,9 +579,11 @@
           <t>Liste des sous-tribus, genres, sous-genres, espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (13 juin 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (13 juin 2016) :
 sous-tribu des Alopecurinae
 sous-tribu des Aveninae
 genre Arrhenatherum
@@ -1974,35 +1990,37 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Robert Soreng et al. (2015)[5] :
-Agrostideae Martinov [1820]
-Agrostidieae Dumort. [1824]
-Airopsideae Gren. &amp; Godr. [1855]
-Alopecureae W.D.J. Koch [1837]
-Anthoxantheae Link ex Endl. [1830]
-Aveneae Dumort. [1824]
-Beckmannieae Nevski [1937]
-Calamagrostideae Trin. [1824]
-Cinneae Ohwi [1941]
-Coleantheae Husn. [1896]
-Cynosureae Dumort. [1824]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Robert Soreng et al. (2015) :
+Agrostideae Martinov 
+Agrostidieae Dumort. 
+Airopsideae Gren. &amp; Godr. 
+Alopecureae W.D.J. Koch 
+Anthoxantheae Link ex Endl. 
+Aveneae Dumort. 
+Beckmannieae Nevski 
+Calamagrostideae Trin. 
+Cinneae Ohwi 
+Coleantheae Husn. 
+Cynosureae Dumort. 
 Dupontieae A. Löve &amp; D. Löve, [1961, nom. nud.]
-Festuceae Dumort. [1824]
-Gaudinieae Rouy [1913]
-Graphephoreae (Asch. &amp; Graebn.) Hyl. [1953]
-Hainardieae Greuter [1967]
-Holceae J. Presl [1846]
-Lolieae Link ex Endl. [1830]
+Festuceae Dumort. 
+Gaudinieae Rouy 
+Graphephoreae (Asch. &amp; Graebn.) Hyl. 
+Hainardieae Greuter 
+Holceae J. Presl 
+Lolieae Link ex Endl. 
 Koelerieae Schur [1866, nom. nud.]
-Milieae Link ex Endl. [1830]
-Phalarideae Kunth [1829]
-Phleeae Dumort. [1824]
-Scolochloeae' Tzvelev [1968]
-Seslerieae W.D.J. Koch [1837]
-Triseteae Gren. &amp; Godr. [1855]
-Vilfeae Trin. [1824])
+Milieae Link ex Endl. 
+Phalarideae Kunth 
+Phleeae Dumort. 
+Scolochloeae' Tzvelev 
+Seslerieae W.D.J. Koch 
+Triseteae Gren. &amp; Godr. 
+Vilfeae Trin. )
 </t>
         </is>
       </c>
